--- a/biology/Botanique/Salix_sericea/Salix_sericea.xlsx
+++ b/biology/Botanique/Salix_sericea/Salix_sericea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Salix  sericea est une espèce de saule de la famille des Salicaceae originaire de l'Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix sericea, également connu sous le nom saule soyeux (en anglais, silky willow), est un arbuste de la famille des Salicaceae. Il pousse dans les marécages et le long des rivières dans l'est des États-Unis et au Canada. Il atteint de 2 à 4 m de haut et a de longues et minces brindilles violacées.
 Les feuilles font 6 à 10 cm de long, 7 à 8 mm de large.  Elles sont  lancéolées,  acuminées, dentées, vert foncé et légèrement poilues sur le dessus ; vert clair et densément recouvertes de poils blancs soyeux dessous. Les feuilles matures sont  glabres. Les  pétioles font 1 cm de long. Les chatons sont  sessiles et habituellement avec des  bractées. 
